--- a/data_to_prepare/companies_list.xlsx
+++ b/data_to_prepare/companies_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a6a6de25d98118a/RBC Capital Markets/Project/data_to_prepare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a6a6de25d98118a/RBC Capital Markets/2008-quantitative-study/data_to_prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{A8F3EC3D-7B93-1846-A577-01D2D6109FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BC78CF3-628F-914E-A01E-D605DB05EDC6}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{A8F3EC3D-7B93-1846-A577-01D2D6109FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F89565FF-6ADB-B845-A454-61DEB79D5E05}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="27400" windowHeight="16060" xr2:uid="{6A55B8D8-7ACB-744C-A29F-05CCC0004EFA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14660" windowHeight="16060" xr2:uid="{6A55B8D8-7ACB-744C-A29F-05CCC0004EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -215,7 +214,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -583,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A3B694-F1D7-7144-A796-FC8DBDE6C39C}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +609,7 @@
       <c r="B2">
         <v>84766</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -622,7 +620,7 @@
       <c r="B3">
         <v>89684</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -633,7 +631,7 @@
       <c r="B4">
         <v>76757</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -644,7 +642,7 @@
       <c r="B5">
         <v>87358</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -655,7 +653,7 @@
       <c r="B6">
         <v>66800</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -666,7 +664,7 @@
       <c r="B7">
         <v>59408</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -677,7 +675,7 @@
       <c r="B8">
         <v>49656</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -688,7 +686,7 @@
       <c r="B9">
         <v>69761</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -699,7 +697,7 @@
       <c r="B10">
         <v>81284</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -710,7 +708,7 @@
       <c r="B11">
         <v>81055</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -721,7 +719,7 @@
       <c r="B12">
         <v>75186</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -732,7 +730,7 @@
       <c r="B13">
         <v>70519</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -743,7 +741,7 @@
       <c r="B14">
         <v>25081</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -754,7 +752,7 @@
       <c r="B15">
         <v>86845</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -765,7 +763,7 @@
       <c r="B16">
         <v>64565</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -776,7 +774,7 @@
       <c r="B17">
         <v>77661</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -787,7 +785,7 @@
       <c r="B18">
         <v>89199</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -798,7 +796,7 @@
       <c r="B19">
         <v>54279</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -809,7 +807,7 @@
       <c r="B20">
         <v>83862</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -820,7 +818,7 @@
       <c r="B21">
         <v>75789</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -831,7 +829,7 @@
       <c r="B22">
         <v>51043</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -842,7 +840,7 @@
       <c r="B23">
         <v>34746</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -853,7 +851,7 @@
       <c r="B24">
         <v>36397</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -864,7 +862,7 @@
       <c r="B25">
         <v>75162</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -875,7 +873,7 @@
       <c r="B26">
         <v>65285</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -886,7 +884,7 @@
       <c r="B27">
         <v>87033</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -897,7 +895,7 @@
       <c r="B28">
         <v>67862</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -908,7 +906,7 @@
       <c r="B29">
         <v>47896</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -919,7 +917,7 @@
       <c r="B30">
         <v>64995</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -930,7 +928,7 @@
       <c r="B31">
         <v>80599</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -941,7 +939,7 @@
       <c r="B32">
         <v>75175</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -952,7 +950,7 @@
       <c r="B33">
         <v>52919</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -963,7 +961,7 @@
       <c r="B34">
         <v>69032</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -974,7 +972,7 @@
       <c r="B35">
         <v>56232</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -985,7 +983,7 @@
       <c r="B36">
         <v>85196</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -996,7 +994,7 @@
       <c r="B37">
         <v>85025</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1007,7 +1005,7 @@
       <c r="B38">
         <v>35044</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1018,7 +1016,7 @@
       <c r="B39">
         <v>92208</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1029,7 +1027,7 @@
       <c r="B40">
         <v>68144</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1040,7 +1038,7 @@
       <c r="B41">
         <v>83835</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1049,7 @@
       <c r="B42">
         <v>68304</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1062,7 +1060,7 @@
       <c r="B43">
         <v>86868</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1073,7 +1071,7 @@
       <c r="B44">
         <v>60442</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1082,7 @@
       <c r="B45">
         <v>79351</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1095,7 +1093,7 @@
       <c r="B46">
         <v>66157</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1106,7 +1104,7 @@
       <c r="B47">
         <v>36469</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1117,7 +1115,7 @@
       <c r="B48">
         <v>81593</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1128,7 +1126,7 @@
       <c r="B49">
         <v>84129</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>0</v>
       </c>
     </row>
